--- a/data/终端设备信息模板.xlsx
+++ b/data/终端设备信息模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/program/datagovernance/static/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/program/datagovernance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D25DF94-1BB2-8249-B2F4-5F1D9F1BB043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6EF49-4609-B24B-B45F-617CF126FB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="7060" windowWidth="27240" windowHeight="15080" xr2:uid="{C2FEEB5D-37BE-F44B-AB1D-FE02B984A0CA}"/>
+    <workbookView xWindow="720" yWindow="1500" windowWidth="27240" windowHeight="15080" xr2:uid="{C2FEEB5D-37BE-F44B-AB1D-FE02B984A0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>县公司</t>
   </si>
@@ -473,14 +473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92534322-1525-AD4D-AE47-E167553A831C}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" style="3" customWidth="1"/>
   </cols>
@@ -581,9 +584,6 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="1">
         <v>2342342</v>
       </c>
@@ -690,6 +690,95 @@
       </c>
       <c r="G9" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2342342</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2342342</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2342342</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2342342</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/终端设备信息模板.xlsx
+++ b/data/终端设备信息模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/program/datagovernance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6EF49-4609-B24B-B45F-617CF126FB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3ED371-4121-D241-9B3C-2E484A3480CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1500" windowWidth="27240" windowHeight="15080" xr2:uid="{C2FEEB5D-37BE-F44B-AB1D-FE02B984A0CA}"/>
+    <workbookView xWindow="3320" yWindow="4760" windowWidth="27240" windowHeight="15080" xr2:uid="{C2FEEB5D-37BE-F44B-AB1D-FE02B984A0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>县公司</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>凉山供电公司</t>
-  </si>
-  <si>
-    <t>151562152135141</t>
   </si>
   <si>
     <t>151562152135142</t>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92534322-1525-AD4D-AE47-E167553A831C}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,6 +481,7 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" style="3" customWidth="1"/>
   </cols>
@@ -689,7 +687,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -712,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -731,20 +729,14 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="1">
         <v>2342342</v>
       </c>
@@ -758,26 +750,6 @@
         <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2342342</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
